--- a/Dissertation/results of cellABM.xlsx
+++ b/Dissertation/results of cellABM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="3460" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="3420" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Size</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>As there are so many SCs there is significant amount of gaps between cells when confluence is formed. May be an idea to discuss with dawn whether for these cases, the number of QC % present must be increased? End: smaller % confluence</t>
+  </si>
+  <si>
+    <t>Update radii 5, cells became very small thus a confluence was fasly formed. Also number of SC prevented cells forming confluence, I think they grow too fast</t>
+  </si>
+  <si>
+    <t>Update radii 10, senescent growth factor corrected. Confluent still quite gappy but senescent correction helps. Actually worked surprisingly well final confluence was nice</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,16 +621,76 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <f>SUM(G4:H4)</f>
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <f>SUM((G4/I4)*100)</f>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>42</v>
+      </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" t="e">
+        <v>54</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="X4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I13" si="2">SUM(G5:H5)</f>
+        <v>15</v>
+      </c>
       <c r="N5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -635,22 +701,185 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>588</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J5:J22" si="3">SUM((G6/I6)*100)</f>
+        <v>2.4875621890547266</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>780</v>
+      </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="e">
+        <v>788</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.0256410256410255</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J14" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J16" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J18" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J19" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J22" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
